--- a/output/freezer_03_shelf1/c2_exceldata.xlsx
+++ b/output/freezer_03_shelf1/c2_exceldata.xlsx
@@ -28,7 +28,7 @@
     <t>F3-S1-R1</t>
   </si>
   <si>
-    <t>SHF24</t>
+    <t>SHF25</t>
   </si>
   <si>
     <t>F3-S1-R2</t>
